--- a/data/predictions/race/aid_blacks/overall/republican.xlsx
+++ b/data/predictions/race/aid_blacks/overall/republican.xlsx
@@ -952,7 +952,7 @@
         <v>0.2498259688887709</v>
       </c>
       <c r="D34">
-        <v>0.3669728686027654</v>
+        <v>0.388275081533088</v>
       </c>
       <c r="F34">
         <v>0.01344059347124763</v>
@@ -972,7 +972,7 @@
         <v>0.2453809200585174</v>
       </c>
       <c r="D35">
-        <v>0.4088872162134287</v>
+        <v>0.4644826925514003</v>
       </c>
       <c r="F35">
         <v>0.02132557143302435</v>
@@ -992,7 +992,7 @@
         <v>0.2430948099549126</v>
       </c>
       <c r="D36">
-        <v>0.4255209668174116</v>
+        <v>0.4803686365741252</v>
       </c>
       <c r="F36">
         <v>0.01503000751160101</v>
@@ -1012,7 +1012,7 @@
         <v>0.2408853075013778</v>
       </c>
       <c r="D37">
-        <v>0.4258090036243201</v>
+        <v>0.4062200660658573</v>
       </c>
       <c r="F37">
         <v>0.01591357319210367</v>
@@ -1032,7 +1032,7 @@
         <v>0.2386785233890246</v>
       </c>
       <c r="D38">
-        <v>0.4225479072677333</v>
+        <v>0.363426239182987</v>
       </c>
       <c r="F38">
         <v>0.01316258793190424</v>
@@ -1052,7 +1052,7 @@
         <v>0.2364718357341241</v>
       </c>
       <c r="D39">
-        <v>0.421636341501644</v>
+        <v>0.4184480258658997</v>
       </c>
       <c r="F39">
         <v>0.01225165310581516</v>
